--- a/Atlique_FMCG_promotional_analysis/recommended insights/promotion_performance/campaign_sales_by_city_for_each_type.xlsx
+++ b/Atlique_FMCG_promotional_analysis/recommended insights/promotion_performance/campaign_sales_by_city_for_each_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivek\sql\SQL\Atlique_FMCG_promotional_analysis\recommended insights\promotion_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F2832-D8D8-4FFB-B290-60E566FCE796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E4F3F-8251-45BA-998E-BF82A25070D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="19">
   <si>
     <t>city</t>
   </si>
@@ -687,49 +687,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -889,9 +847,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$B$8</c:f>
+              <c:f>Sheet1!$A$4:$B$53</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="50"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>25% OFF</c:v>
@@ -908,10 +866,172 @@
                   <c:pt idx="4">
                     <c:v>BOGOF</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>25% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>33% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>50% OFF</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>500 Cashback</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>BOGOF</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Bengaluru</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Chennai</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Coimbatore</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Hyderabad</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Madurai</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Mangalore</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Mysuru</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
                     <c:v>Trivandrum</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Vijayawada</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Visakhapatnam</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -919,24 +1039,159 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$4:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="36">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="37">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="38">
                   <c:v>3.39</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="39">
                   <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,6 +1315,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79148073075024039"/>
+          <c:y val="6.5827411979091852E-2"/>
+          <c:w val="3.7500584704139708E-2"/>
+          <c:h val="5.8096797109058899E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1992,21 +2257,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3792902-2609-4DAD-9EBB-7459541DD31C}" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3792902-2609-4DAD-9EBB-7459541DD31C}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A3:C53" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
+        <item x="8"/>
+        <item x="9"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2040,9 +2305,153 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="50">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
       <x/>
     </i>
     <i r="1">
@@ -2064,27 +2473,12 @@
   <dataFields count="1">
     <dataField name="Sum of total_revenue_generated_in_mil" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -2399,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5705DC-9C5D-43B8-866C-A6A34941D92F}">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,57 +2819,552 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>0.16</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>0.95</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>3.39</v>
+        <v>38.130000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
         <v>2.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7.19</v>
       </c>
     </row>
   </sheetData>

--- a/Atlique_FMCG_promotional_analysis/recommended insights/promotion_performance/campaign_sales_by_city_for_each_type.xlsx
+++ b/Atlique_FMCG_promotional_analysis/recommended insights/promotion_performance/campaign_sales_by_city_for_each_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivek\sql\SQL\Atlique_FMCG_promotional_analysis\recommended insights\promotion_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E4F3F-8251-45BA-998E-BF82A25070D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEB79A5-53AC-4490-B8F8-602ACB8783ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="19">
   <si>
     <t>city</t>
   </si>
@@ -847,9 +847,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$B$53</c:f>
+              <c:f>Sheet1!$A$4:$B$23</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>25% OFF</c:v>
@@ -911,96 +911,6 @@
                   <c:pt idx="19">
                     <c:v>BOGOF</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>25% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>33% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>50% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>500 Cashback</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>BOGOF</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>25% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>33% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>50% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>500 Cashback</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>BOGOF</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>25% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>33% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>50% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>500 Cashback</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>BOGOF</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>25% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>33% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>50% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>500 Cashback</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>BOGOF</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>25% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>33% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>50% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>500 Cashback</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>BOGOF</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>25% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>33% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>50% OFF</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>500 Cashback</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>BOGOF</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1010,28 +920,10 @@
                     <c:v>Chennai</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Coimbatore</c:v>
+                    <c:v>Hyderabad</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Hyderabad</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Madurai</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Mangalore</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
                     <c:v>Mysuru</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>Trivandrum</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Vijayawada</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>Visakhapatnam</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1039,10 +931,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$53</c:f>
+              <c:f>Sheet1!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.43</c:v>
                 </c:pt>
@@ -1074,124 +966,34 @@
                   <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.66</c:v>
+                  <c:v>6.71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.42</c:v>
+                  <c:v>23.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6300000000000008</c:v>
+                  <c:v>14.95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.01</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.71</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.34</c:v>
+                  <c:v>15.31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.86</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.37</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.72</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.31</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>7.65</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,21 +2059,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3792902-2609-4DAD-9EBB-7459541DD31C}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:C53" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3792902-2609-4DAD-9EBB-7459541DD31C}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="10">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2305,7 +2107,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="50">
+  <rowItems count="20">
     <i>
       <x/>
       <x/>
@@ -2339,22 +2141,6 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
       <x v="3"/>
       <x/>
     </i>
@@ -2371,87 +2157,7 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
       <x v="6"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
       <x/>
     </i>
     <i r="1">
@@ -2497,9 +2203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2537,7 +2243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2643,7 +2349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2785,7 +2491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2793,7 +2499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5705DC-9C5D-43B8-866C-A6A34941D92F}">
-  <dimension ref="A3:C53"/>
+  <dimension ref="A3:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
@@ -2929,442 +2635,112 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>3.66</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>13.42</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2">
-        <v>8.6300000000000008</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>6.71</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>23.34</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>14.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2">
-        <v>13.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2">
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2">
-        <v>15.31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2">
         <v>7.65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="2">
-        <v>11.51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="2">
-        <v>7.19</v>
       </c>
     </row>
   </sheetData>
